--- a/projects/test_building/input/Scenario_CoolingTechnology_MarketShare.xlsx
+++ b/projects/test_building/input/Scenario_CoolingTechnology_MarketShare.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="945" windowWidth="22935" windowHeight="11775"/>
+    <workbookView xWindow="4490" yWindow="950" windowWidth="22940" windowHeight="11780"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -568,15 +568,15 @@
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
